--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\school\parallel\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrusso/Developer/Parallel Programming/wikipedia-graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +110,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -257,7 +263,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -285,16 +291,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,13 +312,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31.420936999999999</c:v>
+                  <c:v>4722.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1641309999999994</c:v>
+                  <c:v>8.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2643330000000002</c:v>
+                  <c:v>2.264333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.859947</c:v>
@@ -321,7 +327,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4392-4065-9643-10C2FACF279B}"/>
             </c:ext>
@@ -337,11 +343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1880800688"/>
+        <c:axId val="1880804080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1880800688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1880804080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -448,7 +454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1880804080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1880800688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -605,7 +611,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -758,7 +764,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -786,16 +792,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,22 +813,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.601344999999998</c:v>
+                  <c:v>21.601345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6149680000000002</c:v>
+                  <c:v>5.614968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5199689999999999</c:v>
+                  <c:v>1.519969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50387400000000004</c:v>
+                  <c:v>0.503874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-32C7-470D-BC9C-61758AFF4339}"/>
             </c:ext>
@@ -838,11 +844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1814522496"/>
+        <c:axId val="1881174384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1814522496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1881174384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1881174384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1814522496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1106,7 +1112,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1256,7 +1262,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1284,16 +1290,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,19 +1314,19 @@
                   <c:v>10.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1641310000000002</c:v>
+                  <c:v>4.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2643329999999999</c:v>
+                  <c:v>1.264333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85994700000000002</c:v>
+                  <c:v>0.859947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1E84-4F91-A3AD-069BAD3C75C7}"/>
             </c:ext>
@@ -1336,11 +1342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1881196624"/>
+        <c:axId val="1881200016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1881196624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1881200016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1447,7 +1453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1881200016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1881196624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,7 +1610,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1757,7 +1763,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1785,16 +1791,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,22 +1812,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4209370000000003</c:v>
+                  <c:v>8.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1641309999999998</c:v>
+                  <c:v>3.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7877769999999999</c:v>
+                  <c:v>1.787777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59947799999999996</c:v>
+                  <c:v>0.599478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-451F-43BB-8D7F-D94B4425EDDA}"/>
             </c:ext>
@@ -1837,11 +1843,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1881222064"/>
+        <c:axId val="1881225456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1881222064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1881225456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1881225456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1881222064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2105,7 +2111,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2195,10 +2201,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7704977331795381E-2"/>
-          <c:y val="0.15729858311152434"/>
-          <c:w val="0.85209492494824057"/>
-          <c:h val="0.61954261904494023"/>
+          <c:x val="0.0977049773317954"/>
+          <c:y val="0.157298583111524"/>
+          <c:w val="0.852094924948241"/>
+          <c:h val="0.61954261904494"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2237,16 +2243,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,13 +2264,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31.420936999999999</c:v>
+                  <c:v>4722.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1641309999999994</c:v>
+                  <c:v>8.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2643330000000002</c:v>
+                  <c:v>2.264333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.859947</c:v>
@@ -2273,7 +2279,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33AC-45AF-9C26-175A1FE16FFF}"/>
             </c:ext>
@@ -2312,29 +2318,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.601344999999998</c:v>
+                  <c:v>21.601345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6149680000000002</c:v>
+                  <c:v>5.614968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5199689999999999</c:v>
+                  <c:v>1.519969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50387400000000004</c:v>
+                  <c:v>0.503874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-33AC-45AF-9C26-175A1FE16FFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2343,11 +2348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1881254896"/>
+        <c:axId val="1881258288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1881254896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1881258288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1881258288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1881254896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,10 +2584,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13440531236923906"/>
-          <c:y val="0.8663252416040339"/>
-          <c:w val="0.20770282910940926"/>
-          <c:h val="0.10092419901064957"/>
+          <c:x val="0.134405312369239"/>
+          <c:y val="0.866325241604034"/>
+          <c:w val="0.207702829109409"/>
+          <c:h val="0.10092419901065"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2652,7 +2657,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2739,10 +2744,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7704977331795381E-2"/>
-          <c:y val="0.15729858311152434"/>
-          <c:w val="0.85209492494824057"/>
-          <c:h val="0.61954261904494023"/>
+          <c:x val="0.0977049773317954"/>
+          <c:y val="0.157298583111524"/>
+          <c:w val="0.852094924948241"/>
+          <c:h val="0.61954261904494"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2781,16 +2786,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,19 +2810,19 @@
                   <c:v>10.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1641310000000002</c:v>
+                  <c:v>4.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2643329999999999</c:v>
+                  <c:v>1.264333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85994700000000002</c:v>
+                  <c:v>0.859947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B778-4997-94EB-CFDE3AC04EFE}"/>
             </c:ext>
@@ -2856,16 +2861,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,22 +2882,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.4209370000000003</c:v>
+                  <c:v>8.420937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1641309999999998</c:v>
+                  <c:v>3.164131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7877769999999999</c:v>
+                  <c:v>1.787777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59947799999999996</c:v>
+                  <c:v>0.599478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B778-4997-94EB-CFDE3AC04EFE}"/>
             </c:ext>
@@ -2907,11 +2912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394532552"/>
-        <c:axId val="394533208"/>
+        <c:axId val="1880825616"/>
+        <c:axId val="1880829008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394532552"/>
+        <c:axId val="1880825616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394533208"/>
+        <c:crossAx val="1880829008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3018,7 +3023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394533208"/>
+        <c:axId val="1880829008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,7 +3130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394532552"/>
+        <c:crossAx val="1880825616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3143,10 +3148,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13440531236923906"/>
-          <c:y val="0.8663252416040339"/>
-          <c:w val="0.20770282910940926"/>
-          <c:h val="0.10092419901064957"/>
+          <c:x val="0.134405312369239"/>
+          <c:y val="0.866325241604034"/>
+          <c:w val="0.207702829109409"/>
+          <c:h val="0.10092419901065"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7011,13 +7016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7029,7 +7034,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7043,12 +7048,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>31.420936999999999</v>
+        <v>4722.4209369999999</v>
       </c>
       <c r="H3">
         <v>18</v>
@@ -7057,7 +7062,7 @@
         <v>21.601344999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>108</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>5.6149680000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>628</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>1.5199689999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1296</v>
       </c>
@@ -7099,7 +7104,7 @@
         <v>0.50387400000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>8.4209370000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -7149,7 +7154,7 @@
         <v>3.1641309999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>628</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>1.7877769999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1296</v>
       </c>
